--- a/doc/1.spark原理深度剖析.xlsx
+++ b/doc/1.spark原理深度剖析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,15 +207,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>295274</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -224,8 +224,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133725" y="666750"/>
-          <a:ext cx="1390650" cy="504825"/>
+          <a:off x="3038474" y="514350"/>
+          <a:ext cx="2009775" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -893,9 +893,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>614362</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -913,8 +913,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3829050" y="1171575"/>
-          <a:ext cx="214313" cy="533400"/>
+          <a:off x="4043362" y="990600"/>
+          <a:ext cx="1" cy="714375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2529,6 +2529,227 @@
         <a:xfrm flipV="1">
           <a:off x="12620625" y="6515100"/>
           <a:ext cx="819150" cy="52388"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矩形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="1076324"/>
+          <a:ext cx="2533650" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>stand</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>alone</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>模式，其实会通过反射的方式创建和构造一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DriverActor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>进程出来</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="1581149"/>
+          <a:ext cx="1562100" cy="238126"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2565,7 +2786,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2847,7 +3068,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R43" sqref="R43"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
